--- a/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>270022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>256901</v>
+        <v>255754</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277010</v>
+        <v>277911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9371760930631732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8916372997862444</v>
+        <v>0.8876571010908516</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9614310657213146</v>
+        <v>0.9645556767424939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>491</v>
@@ -762,19 +762,19 @@
         <v>309057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>302279</v>
+        <v>302782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314016</v>
+        <v>314303</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9553264188069023</v>
+        <v>0.9553264188069019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9343758678093231</v>
+        <v>0.935931653954472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9706549753471776</v>
+        <v>0.9715442174703655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>770</v>
@@ -783,19 +783,19 @@
         <v>579079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>565828</v>
+        <v>565187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>588336</v>
+        <v>588178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9467763028124961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9251122197046475</v>
+        <v>0.9240644334255179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9619118228441557</v>
+        <v>0.9616533990464243</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7503</v>
+        <v>7322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26574</v>
+        <v>27775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04954567677963737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0260393920317931</v>
+        <v>0.02541205214730264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09222988852894597</v>
+        <v>0.09640141506536354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -833,19 +833,19 @@
         <v>12531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7976</v>
+        <v>7699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19869</v>
+        <v>18553</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03873461451242829</v>
+        <v>0.03873461451242828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02465588211568454</v>
+        <v>0.02379707360122271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06141859104294055</v>
+        <v>0.05734911849362092</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>26806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17589</v>
+        <v>17867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40069</v>
+        <v>39317</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04382740665911024</v>
+        <v>0.04382740665911023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02875829450162818</v>
+        <v>0.02921253502187787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06551085028059284</v>
+        <v>0.06428247248050158</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>3166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8390</v>
+        <v>9649</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01098925586518259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002671874755189182</v>
+        <v>0.002690334415339452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02912120154033421</v>
+        <v>0.03348990110939109</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4490</v>
+        <v>3916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003934681775508765</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0138789499953694</v>
+        <v>0.01210370784392222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -925,19 +925,19 @@
         <v>4439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1382</v>
+        <v>1441</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11040</v>
+        <v>11501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007257896334271234</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002258748114033454</v>
+        <v>0.002356505495662056</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01804986915839872</v>
+        <v>0.01880325073680067</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002288974292006969</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002004284905160814</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002138394194122303</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>445731</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>431967</v>
+        <v>431477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>455115</v>
+        <v>454542</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.947943488097553</v>
+        <v>0.9479434880975534</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9186712045132981</v>
+        <v>0.9176290716926454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9679013749031342</v>
+        <v>0.9666825161729127</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>647</v>
@@ -1121,19 +1121,19 @@
         <v>461041</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>449878</v>
+        <v>448050</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>471079</v>
+        <v>470826</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9169427235362722</v>
+        <v>0.916942723536272</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8947412175963709</v>
+        <v>0.8911067650200643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9369068797610781</v>
+        <v>0.9364044981062644</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1053</v>
@@ -1142,19 +1142,19 @@
         <v>906771</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>890562</v>
+        <v>887317</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>921083</v>
+        <v>921534</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9319238720415912</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9152654283103689</v>
+        <v>0.9119294896306425</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9466323193981185</v>
+        <v>0.947095611980064</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>23215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13977</v>
+        <v>14431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35992</v>
+        <v>36892</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0493707851617029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02972608849529481</v>
+        <v>0.03069053064047477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07654506439215607</v>
+        <v>0.07845961557753514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1192,19 +1192,19 @@
         <v>33772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23998</v>
+        <v>24699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44708</v>
+        <v>45653</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0671677116174715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04772815966371857</v>
+        <v>0.04912253227764195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0889169995287578</v>
+        <v>0.09079752498665664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1213,19 +1213,19 @@
         <v>56987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43061</v>
+        <v>43300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73382</v>
+        <v>75244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05856733024155183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04425509619639734</v>
+        <v>0.04450128467280461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07541796050109081</v>
+        <v>0.07733101828140763</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4333</v>
+        <v>4398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002685726740743924</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009215435073687803</v>
+        <v>0.009354040602386128</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>3532</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1436</v>
+        <v>1375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7879</v>
+        <v>8236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007024511086340775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002855396831005415</v>
+        <v>0.002735159980250939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01566941711199514</v>
+        <v>0.01638046715382923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>4795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2137</v>
+        <v>2111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9076</v>
+        <v>9472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004927789488218541</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002196017918900854</v>
+        <v>0.002169628892992842</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00932798889973818</v>
+        <v>0.009734361836274999</v>
       </c>
     </row>
     <row r="12">
@@ -1326,19 +1326,19 @@
         <v>4457</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2068</v>
+        <v>1801</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9152</v>
+        <v>8787</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.008865053759915687</v>
+        <v>0.008865053759915689</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004113238984348417</v>
+        <v>0.003581760672952351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01820240207142505</v>
+        <v>0.01747569663401029</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1347,19 +1347,19 @@
         <v>4457</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1674</v>
+        <v>1841</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8949</v>
+        <v>9001</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004581008228638425</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001720702940220939</v>
+        <v>0.001891825239073591</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009196891356071098</v>
+        <v>0.009250496674552718</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>350196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334206</v>
+        <v>336027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359187</v>
+        <v>358880</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9299291793675539</v>
+        <v>0.9299291793675543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8874680678632993</v>
+        <v>0.8923030572774141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9538021369769338</v>
+        <v>0.9529869253655813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>444</v>
@@ -1472,19 +1472,19 @@
         <v>342632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>329819</v>
+        <v>328673</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>352705</v>
+        <v>351796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9063066610942082</v>
+        <v>0.9063066610942084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.872413679373455</v>
+        <v>0.8693835335263053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.932950136957879</v>
+        <v>0.930545559768248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>737</v>
@@ -1493,19 +1493,19 @@
         <v>692827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>674269</v>
+        <v>674485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707267</v>
+        <v>708582</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9180949258345354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8935024648306544</v>
+        <v>0.8937887596756562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9372299394382022</v>
+        <v>0.9389725504391062</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>21209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13029</v>
+        <v>13208</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35817</v>
+        <v>36704</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05631965023797535</v>
+        <v>0.05631965023797534</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03459800009120101</v>
+        <v>0.03507290101261749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09511074154494559</v>
+        <v>0.09746683038539004</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -1543,19 +1543,19 @@
         <v>25838</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17516</v>
+        <v>18118</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36832</v>
+        <v>37466</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06834460013868983</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04633319257279446</v>
+        <v>0.04792475447064039</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09742462740621026</v>
+        <v>0.09910135918537567</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -1564,19 +1564,19 @@
         <v>47047</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>33727</v>
+        <v>34393</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>62371</v>
+        <v>63856</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06234383039523968</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04469267089236664</v>
+        <v>0.04557577760418289</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08265082460790793</v>
+        <v>0.08461794905562905</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>4184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1028</v>
+        <v>1131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10381</v>
+        <v>10877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01110970000829017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002729443639228203</v>
+        <v>0.003004155984787909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02756711559396541</v>
+        <v>0.02888462447967691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1614,19 +1614,19 @@
         <v>7742</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3481</v>
+        <v>3418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16525</v>
+        <v>17324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02047926699942583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009206677415514302</v>
+        <v>0.009041688773282746</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04371011886052772</v>
+        <v>0.04582502482640534</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1635,19 +1635,19 @@
         <v>11926</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6604</v>
+        <v>6508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22129</v>
+        <v>22657</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01580360393439339</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008751103479229857</v>
+        <v>0.008623711753210715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02932410631733792</v>
+        <v>0.03002411090762645</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5138</v>
+        <v>4158</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002641470386180296</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01364430107725905</v>
+        <v>0.01104063277481415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1685,19 +1685,19 @@
         <v>1841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5583</v>
+        <v>6202</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.004869471767675994</v>
+        <v>0.004869471767675995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001352364642074749</v>
+        <v>0.00134910764525235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01476821255373633</v>
+        <v>0.01640569367614551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1706,19 +1706,19 @@
         <v>2836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7601</v>
+        <v>6981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003757639835831509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0009627312671510384</v>
+        <v>0.000932294923450423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01007295441736542</v>
+        <v>0.009250866714899775</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>405925</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>393310</v>
+        <v>393197</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>414803</v>
+        <v>415000</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9366942815632532</v>
+        <v>0.9366942815632533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9075856460795976</v>
+        <v>0.9073227996265949</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9571821256799651</v>
+        <v>0.9576356504708354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>589</v>
@@ -1831,19 +1831,19 @@
         <v>436516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>423997</v>
+        <v>422053</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>448100</v>
+        <v>447841</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8908303813542473</v>
+        <v>0.8908303813542474</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.865281871756726</v>
+        <v>0.8613147871615384</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9144720510238644</v>
+        <v>0.9139428861137305</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>988</v>
@@ -1852,19 +1852,19 @@
         <v>842442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>823257</v>
+        <v>822322</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>857116</v>
+        <v>856839</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9123553978813727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8915787978143993</v>
+        <v>0.890565866580097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9282475916833733</v>
+        <v>0.9279477192536064</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>22042</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13757</v>
+        <v>14617</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32747</v>
+        <v>34976</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05086413824242011</v>
+        <v>0.0508641382424201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0317448365858712</v>
+        <v>0.03373019638575196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07556456108389166</v>
+        <v>0.08070859049216279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1902,19 +1902,19 @@
         <v>41816</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31609</v>
+        <v>32225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53113</v>
+        <v>55283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08533752439542744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0645066798207428</v>
+        <v>0.06576340033377188</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1083910691354989</v>
+        <v>0.112819482748715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -1923,19 +1923,19 @@
         <v>63859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50615</v>
+        <v>50942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80224</v>
+        <v>82569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06915834636416736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05481513736338212</v>
+        <v>0.05516937520955571</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08688179431039934</v>
+        <v>0.08942094451718463</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>3661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10906</v>
+        <v>10665</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008448250049732207</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001662773417144886</v>
+        <v>0.001658212102845148</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02516562499062294</v>
+        <v>0.02461110496465207</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1973,19 +1973,19 @@
         <v>4343</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1885</v>
+        <v>1711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9097</v>
+        <v>9071</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.008862596242675732</v>
+        <v>0.008862596242675734</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003846886060691052</v>
+        <v>0.003491380386279355</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01856552393357192</v>
+        <v>0.01851140507099996</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1994,19 +1994,19 @@
         <v>8004</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3697</v>
+        <v>4075</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16022</v>
+        <v>16151</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00866813374362055</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004003727642343599</v>
+        <v>0.004413096751081949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01735201525275656</v>
+        <v>0.01749111157783901</v>
       </c>
     </row>
     <row r="22">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00399333014459445</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2044,19 +2044,19 @@
         <v>7335</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3385</v>
+        <v>3643</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14314</v>
+        <v>13824</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01496949800764947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006907171856220084</v>
+        <v>0.007435382371835319</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02921218560728855</v>
+        <v>0.02821232312984121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2065,19 +2065,19 @@
         <v>9066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4950</v>
+        <v>4776</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16499</v>
+        <v>16785</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009818122010839512</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005360807436046732</v>
+        <v>0.005172765153241741</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0178681722428159</v>
+        <v>0.01817768647419039</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>1471874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1445879</v>
+        <v>1448709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1493476</v>
+        <v>1491039</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9385311162644576</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9219558638676952</v>
+        <v>0.9237599621179591</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9523056719611773</v>
+        <v>0.9507513844425132</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2171</v>
@@ -2190,19 +2190,19 @@
         <v>1549245</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1528154</v>
+        <v>1526509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1569680</v>
+        <v>1568713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9143465855549167</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9018989491355415</v>
+        <v>0.900928100094848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9264071360219008</v>
+        <v>0.9258362742916799</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3548</v>
@@ -2211,19 +2211,19 @@
         <v>3021119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2987213</v>
+        <v>2984678</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3052386</v>
+        <v>3047981</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9259714882021677</v>
+        <v>0.9259714882021675</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.915579187894118</v>
+        <v>0.9148023091177681</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9355549274078504</v>
+        <v>0.934204691396459</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>80741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61348</v>
+        <v>63603</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104988</v>
+        <v>104212</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0514841770901177</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03911832297605757</v>
+        <v>0.04055619688477109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06694512663851071</v>
+        <v>0.06645007874894035</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>158</v>
@@ -2261,19 +2261,19 @@
         <v>113957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96501</v>
+        <v>96329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133926</v>
+        <v>133303</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06725621152568775</v>
+        <v>0.06725621152568774</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05695392667547351</v>
+        <v>0.05685200410911942</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07904137035679405</v>
+        <v>0.07867371195197699</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>225</v>
@@ -2282,19 +2282,19 @@
         <v>194698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168572</v>
+        <v>170329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227900</v>
+        <v>227881</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05967498668967053</v>
+        <v>0.05967498668967052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05166729678202778</v>
+        <v>0.05220588615959064</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06985120746909952</v>
+        <v>0.06984535715065331</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>12274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6401</v>
+        <v>6899</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21448</v>
+        <v>21505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007826418029126472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004081313872229647</v>
+        <v>0.004399390581105419</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01367621783378804</v>
+        <v>0.01371284435111001</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2332,19 +2332,19 @@
         <v>16890</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10951</v>
+        <v>10456</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26144</v>
+        <v>27034</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.009968193271505485</v>
+        <v>0.009968193271505483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006463212104777779</v>
+        <v>0.00617124766526135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01542998008429545</v>
+        <v>0.01595509415741226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2353,19 +2353,19 @@
         <v>29164</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20337</v>
+        <v>20330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42330</v>
+        <v>42091</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00893869516033783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006233412684819354</v>
+        <v>0.006231014871919473</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01297415438775246</v>
+        <v>0.01290088504425256</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>3385</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2403,19 +2403,19 @@
         <v>14282</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>25</v>
@@ -2424,19 +2424,19 @@
         <v>17667</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="28">
